--- a/check1.xlsx
+++ b/check1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="40" windowWidth="19100" windowHeight="7300"/>
+    <workbookView xWindow="400" yWindow="20" windowWidth="13340" windowHeight="4300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,122 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>SN</t>
+    <t>AMBIENT DATA :</t>
   </si>
   <si>
-    <t>CHEMICAL</t>
+    <t>TESTING 11111</t>
   </si>
   <si>
-    <t>QUANTITY</t>
+    <t>STACK DATA     :</t>
   </si>
   <si>
-    <t>CRUDE</t>
+    <t>TESTING 2222</t>
   </si>
   <si>
-    <t>755762  KL</t>
+    <t>EFFLUENT DATA :</t>
   </si>
   <si>
-    <t>HYDRAZINE</t>
-  </si>
-  <si>
-    <t>0.58  MT</t>
-  </si>
-  <si>
-    <t>NAPHTHA</t>
-  </si>
-  <si>
-    <t>99822  KL</t>
-  </si>
-  <si>
-    <t>MORPHOLINE</t>
-  </si>
-  <si>
-    <t>68.25 MT</t>
-  </si>
-  <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>HS: 563  MT</t>
-  </si>
-  <si>
-    <t>METHYL DIETHANOL</t>
-  </si>
-  <si>
-    <t>40200KG</t>
-  </si>
-  <si>
-    <t>MB : 1217  MT</t>
-  </si>
-  <si>
-    <t>HYDROGEN PEROXIDE</t>
-  </si>
-  <si>
-    <t>8.56  MT</t>
-  </si>
-  <si>
-    <t>PROPYLENE</t>
-  </si>
-  <si>
-    <t>HS :38  MT</t>
-  </si>
-  <si>
-    <t>PERCHLOROETHYLENE</t>
-  </si>
-  <si>
-    <t>62.57 MT</t>
-  </si>
-  <si>
-    <t>MB : 291  MT</t>
-  </si>
-  <si>
-    <t>CAUSTIC SODA</t>
-  </si>
-  <si>
-    <t>198.76MT</t>
-  </si>
-  <si>
-    <t>NITROGEN</t>
-  </si>
-  <si>
-    <t>1120  MT</t>
-  </si>
-  <si>
-    <t>SULFURIC ACID</t>
-  </si>
-  <si>
-    <t>133  MT</t>
-  </si>
-  <si>
-    <t>AMMONIA</t>
-  </si>
-  <si>
-    <t>300      CYL</t>
-  </si>
-  <si>
-    <t>HYDORGEN</t>
+    <t>TEST33333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -143,7 +58,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -162,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,29 +90,7 @@
         <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -205,10 +98,41 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0"/>
@@ -219,7 +143,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -232,24 +158,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -259,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,35 +197,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -603,183 +527,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
